--- a/wikipedia_validation_sheets/Intraparenchymal hemorrhage DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Intraparenchymal hemorrhage DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6669BECC-3CE3-D445-A0D7-4A826373B093}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D0632-8719-C54E-8571-24EFA9EEA91A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42840" yWindow="460" windowWidth="20500" windowHeight="17620" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="174">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -390,18 +395,12 @@
     <t>Tumor invasion</t>
   </si>
   <si>
-    <t>Subhyaloid retinal hemorrhages</t>
-  </si>
-  <si>
     <t>Altered level of consciousness</t>
   </si>
   <si>
     <t>aphasia</t>
   </si>
   <si>
-    <t>APRAXIA</t>
-  </si>
-  <si>
     <t>decreased level of consciousness</t>
   </si>
   <si>
@@ -415,6 +414,144 @@
   </si>
   <si>
     <t>CONTRALATERAL HEMIPARESIS</t>
+  </si>
+  <si>
+    <t>apraxia</t>
+  </si>
+  <si>
+    <t>Apraxia, NOS</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>Aphasia</t>
+  </si>
+  <si>
+    <t>hemorrhage, bleeding, bleeds, hemorrhages</t>
+  </si>
+  <si>
+    <t>Hemorrhage</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>drug, abuse</t>
+  </si>
+  <si>
+    <t>Drug abuse</t>
+  </si>
+  <si>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>Obstruction</t>
+  </si>
+  <si>
+    <t>primary, malignancies</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>lung, cancer</t>
+  </si>
+  <si>
+    <t>Lung carcinoma</t>
+  </si>
+  <si>
+    <t>melanoma</t>
+  </si>
+  <si>
+    <t>Melanoma, NOS</t>
+  </si>
+  <si>
+    <t>renal, cell, carcinoma</t>
+  </si>
+  <si>
+    <t>Renal cell carcinoma</t>
+  </si>
+  <si>
+    <t>venous, malformations</t>
+  </si>
+  <si>
+    <t>Venous malformation</t>
+  </si>
+  <si>
+    <t>[cgab]</t>
+  </si>
+  <si>
+    <t>neonatal, intraventricular, hemorrhage</t>
+  </si>
+  <si>
+    <t>Perinatal intraventricular hemorrhage</t>
+  </si>
+  <si>
+    <t>tumour, necrosis</t>
+  </si>
+  <si>
+    <t>Tumor necrosis</t>
+  </si>
+  <si>
+    <t>subhyaloid, hemorrhage</t>
+  </si>
+  <si>
+    <t>Subhyaloid hemorrhage</t>
+  </si>
+  <si>
+    <t>glioblastomas</t>
+  </si>
+  <si>
+    <t>Glioblastoma</t>
+  </si>
+  <si>
+    <t>vascular, malformation</t>
+  </si>
+  <si>
+    <t>Congenital vascular anomaly</t>
+  </si>
+  <si>
+    <t>infarct, infarction</t>
+  </si>
+  <si>
+    <t>Infarction</t>
+  </si>
+  <si>
+    <t>metastatic, disease</t>
+  </si>
+  <si>
+    <t>Secondary neoplasm</t>
+  </si>
+  <si>
+    <t>neovascularity</t>
+  </si>
+  <si>
+    <t>Neovascularity</t>
+  </si>
+  <si>
+    <t>amyloid</t>
+  </si>
+  <si>
+    <t>Amyloid deposition</t>
+  </si>
+  <si>
+    <t>cavernous, angiomas</t>
+  </si>
+  <si>
+    <t>Cavernous angioma</t>
+  </si>
+  <si>
+    <t>intracranial, neoplasm</t>
+  </si>
+  <si>
+    <t>Intracranial neoplasm</t>
+  </si>
+  <si>
+    <t>FPREAL</t>
   </si>
 </sst>
 </file>
@@ -781,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -839,16 +976,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -864,6 +995,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -892,7 +1026,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1213,53 +1357,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="44" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1303,13 +1447,13 @@
       <c r="E4" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="42" t="s">
+      <c r="F4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -1458,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1516,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1603,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1632,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1806,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2737,175 +2881,850 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="39"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="33" t="s">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="33"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="34" t="s">
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="21" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="21" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="21" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="21" t="s">
+    <row r="80" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="36" t="s">
-        <v>13</v>
-      </c>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2914,6 +3733,9 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C53">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:C74">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
